--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -593,10 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,12 +643,16 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Week 1</t>
   </si>
@@ -130,13 +130,31 @@
   </si>
   <si>
     <t>Tijden</t>
+  </si>
+  <si>
+    <t>Totaal uren</t>
+  </si>
+  <si>
+    <t>Require uren</t>
+  </si>
+  <si>
+    <t>Totaal dagen</t>
+  </si>
+  <si>
+    <t>Te doen uren</t>
+  </si>
+  <si>
+    <t>Verwacht dagen</t>
+  </si>
+  <si>
+    <t>Verwacht weken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +170,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,17 +306,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -594,17 +637,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,166 +674,340 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <f>SUM(B2:F26)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <f>E29*8.5</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <f>E28-E30</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <f>E31/8.5</f>
+        <v>67.294117647058826</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <f>E32/4</f>
+        <v>16.823529411764707</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Week 1</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Verwacht weken</t>
+  </si>
+  <si>
+    <t>Uren</t>
   </si>
 </sst>
 </file>
@@ -640,14 +643,15 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,7 +717,9 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,10 +949,13 @@
       <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>640</v>
       </c>
     </row>
@@ -955,12 +964,12 @@
         <v>33</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="E29">
-        <f>SUM(B2:F26)</f>
-        <v>8</v>
+      <c r="F29">
+        <f>SUM(C2:G26)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,12 +979,15 @@
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30">
+        <v>8.5</v>
+      </c>
+      <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="E30">
-        <f>E29*8.5</f>
-        <v>68</v>
+      <c r="F30">
+        <f>F29*C30</f>
+        <v>76.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,30 +995,30 @@
         <v>35</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>40</v>
       </c>
-      <c r="E31">
-        <f>E28-E30</f>
-        <v>572</v>
+      <c r="F31">
+        <f>F28-F30</f>
+        <v>563.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="E32">
-        <f>E31/8.5</f>
-        <v>67.294117647058826</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="F32">
+        <f>F31/C30</f>
+        <v>66.294117647058826</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="E33">
-        <f>E32/4</f>
-        <v>16.823529411764707</v>
+      <c r="F33">
+        <f>F32/4</f>
+        <v>16.573529411764707</v>
       </c>
     </row>
   </sheetData>

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Week 1</t>
   </si>
@@ -151,12 +151,24 @@
   </si>
   <si>
     <t>Uren</t>
+  </si>
+  <si>
+    <t>Days Calculator (H)</t>
+  </si>
+  <si>
+    <t>One day (H)</t>
+  </si>
+  <si>
+    <t>Answer: (Day)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -324,6 +336,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -640,18 +653,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,7 +746,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -746,7 +756,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -756,7 +766,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -766,7 +776,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -776,7 +786,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -786,7 +796,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -796,7 +806,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -806,7 +816,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -816,7 +826,7 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -826,7 +836,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -836,7 +846,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -846,7 +856,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -856,7 +866,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -866,7 +876,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -876,7 +886,7 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -886,7 +896,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -896,7 +906,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -906,7 +916,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -916,7 +926,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -926,7 +936,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -936,7 +946,7 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -955,7 +965,7 @@
       <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>640</v>
       </c>
     </row>
@@ -967,7 +977,7 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="14">
         <f>SUM(C2:G26)</f>
         <v>9</v>
       </c>
@@ -985,7 +995,7 @@
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="14">
         <f>F29*C30</f>
         <v>76.5</v>
       </c>
@@ -998,7 +1008,7 @@
       <c r="E31" t="s">
         <v>40</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="14">
         <f>F28-F30</f>
         <v>563.5</v>
       </c>
@@ -1007,18 +1017,42 @@
       <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="14">
         <f>F31/C30</f>
         <v>66.294117647058826</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="14">
         <f>F32/4</f>
         <v>16.573529411764707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <f>C30</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <f>B33/B34</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -656,7 +656,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,14 +730,18 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -979,7 +983,7 @@
       </c>
       <c r="F29" s="14">
         <f>SUM(C2:G26)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,14 +994,14 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="14">
         <f>F29*C30</f>
-        <v>76.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1014,7 @@
       </c>
       <c r="F31" s="14">
         <f>F28-F30</f>
-        <v>563.5</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,7 +1023,7 @@
       </c>
       <c r="F32" s="14">
         <f>F31/C30</f>
-        <v>66.294117647058826</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,7 +1038,7 @@
       </c>
       <c r="F33" s="14">
         <f>F32/4</f>
-        <v>16.573529411764707</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1047,7 @@
       </c>
       <c r="B34">
         <f>C30</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -656,7 +656,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,9 @@
       <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
@@ -983,7 +985,7 @@
       </c>
       <c r="F29" s="14">
         <f>SUM(C2:G26)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,7 +1003,7 @@
       </c>
       <c r="F30" s="14">
         <f>F29*C30</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,7 +1016,7 @@
       </c>
       <c r="F31" s="14">
         <f>F28-F30</f>
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,7 +1025,7 @@
       </c>
       <c r="F32" s="14">
         <f>F31/C30</f>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,7 +1040,7 @@
       </c>
       <c r="F33" s="14">
         <f>F32/4</f>
-        <v>17.25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -655,8 +655,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,15 +745,21 @@
       <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -985,7 +991,7 @@
       </c>
       <c r="F29" s="14">
         <f>SUM(C2:G26)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,7 +1009,7 @@
       </c>
       <c r="F30" s="14">
         <f>F29*C30</f>
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,7 +1022,7 @@
       </c>
       <c r="F31" s="14">
         <f>F28-F30</f>
-        <v>544</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,22 +1031,19 @@
       </c>
       <c r="F32" s="14">
         <f>F31/C30</f>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
       <c r="E33" t="s">
         <v>42</v>
       </c>
       <c r="F33" s="14">
         <f>F32/4</f>
-        <v>17</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -337,6 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -653,10 +654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +665,7 @@
     <col min="1" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -684,7 +685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -699,8 +700,9 @@
       <c r="F2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -716,7 +718,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -733,8 +735,9 @@
       <c r="F4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -752,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -760,21 +763,29 @@
       <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -784,7 +795,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -794,7 +805,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -804,7 +815,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -814,7 +825,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -824,7 +835,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -834,7 +845,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -844,7 +855,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -854,7 +865,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -991,7 +1002,7 @@
       </c>
       <c r="F29" s="14">
         <f>SUM(C2:G26)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,7 +1020,7 @@
       </c>
       <c r="F30" s="14">
         <f>F29*C30</f>
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,7 +1033,7 @@
       </c>
       <c r="F31" s="14">
         <f>F28-F30</f>
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,7 +1042,7 @@
       </c>
       <c r="F32" s="14">
         <f>F31/C30</f>
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1054,7 @@
       </c>
       <c r="F33" s="14">
         <f>F32/4</f>
-        <v>16.25</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,8 +781,12 @@
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1002,7 +1006,7 @@
       </c>
       <c r="F29" s="14">
         <f>SUM(C2:G26)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,7 +1024,7 @@
       </c>
       <c r="F30" s="14">
         <f>F29*C30</f>
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1037,7 @@
       </c>
       <c r="F31" s="14">
         <f>F28-F30</f>
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,7 +1046,7 @@
       </c>
       <c r="F32" s="14">
         <f>F31/C30</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,7 +1058,7 @@
       </c>
       <c r="F33" s="14">
         <f>F32/4</f>
-        <v>15.25</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/TurnInSchool/WorkingTimes.xlsx
+++ b/TurnInSchool/WorkingTimes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Week 1</t>
   </si>
@@ -160,6 +160,33 @@
   </si>
   <si>
     <t>Answer: (Day)</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>oktober</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>januari</t>
+  </si>
+  <si>
+    <t>februari</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Sick</t>
   </si>
 </sst>
 </file>
@@ -169,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +227,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +292,53 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -248,15 +348,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -273,32 +364,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -316,31 +381,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="7" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="9" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
+    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
+    <cellStyle name="40% - Accent6" xfId="8" builtinId="51"/>
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,430 +928,754 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="55" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="3">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="3">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="2">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="2">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="56">
+        <v>1</v>
+      </c>
+      <c r="D12" s="56">
+        <v>1</v>
+      </c>
+      <c r="E12" s="56">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="56">
+        <v>1</v>
+      </c>
+      <c r="D13" s="56">
+        <v>1</v>
+      </c>
+      <c r="E13" s="56">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="3">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="56">
+        <v>1</v>
+      </c>
+      <c r="D14" s="56">
+        <v>1</v>
+      </c>
+      <c r="E14" s="56">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="3">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="56">
+        <v>1</v>
+      </c>
+      <c r="D15" s="56">
+        <v>1</v>
+      </c>
+      <c r="E15" s="56">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="3">
+        <v>28</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="2">
+        <v>19</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="2">
+        <v>26</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="3">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="3">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="3">
+        <v>23</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="3">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="4">
+        <v>13</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="35">
         <v>640</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="E29" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="37">
         <f>SUM(C2:G26)</f>
+        <v>59</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="44">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="37">
+        <f>F29*C30</f>
+        <v>472</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="37">
+        <f>F28-F30</f>
+        <v>168</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="37">
+        <f>F31/C30</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="14">
-        <f>F29*C30</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="14">
-        <f>F28-F30</f>
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="14">
-        <f>F31/C30</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="39">
         <f>F32/4</f>
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>5.25</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="46">
         <f>C30</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="47">
         <f>B33/B34</f>
         <v>0</v>
       </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
